--- a/variable_key.xlsx
+++ b/variable_key.xlsx
@@ -18,12 +18,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Total area of the country (1000 ha)</t>
+  </si>
+  <si>
+    <t>% of total country area cultivated (%)</t>
+  </si>
+  <si>
+    <t>Total population (1000 inhab)</t>
+  </si>
+  <si>
+    <t>Rural population (1000 inhab)</t>
+  </si>
+  <si>
+    <t>Urban population (1000 inhab)</t>
+  </si>
+  <si>
+    <t>Population density (inhab/km2)</t>
+  </si>
+  <si>
+    <t>GDP per capita (current US$/inhab)</t>
+  </si>
+  <si>
+    <t>Human Development Index (HDI) [highest = 1] (-)</t>
+  </si>
+  <si>
+    <t>Gender Inequality Index (GII) [equality = 0; inequality = 1) (-)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (3-year average) (%)</t>
+  </si>
+  <si>
+    <t>National Rainfall Index (NRI) (mm/year)</t>
+  </si>
+  <si>
+    <t>Dependency ratio (%)</t>
+  </si>
+  <si>
+    <t>Total renewable water resources per capita (m3/inhab/year)</t>
+  </si>
+  <si>
+    <t>SDG 6.4.2. Water Stress (%)</t>
+  </si>
+  <si>
+    <t>Flood occurrence (WRI) (-)</t>
+  </si>
+  <si>
+    <t>Total population with access to safe drinking-water (JMP) (%)</t>
+  </si>
+  <si>
+    <t>perc_cultivated</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>total_pop</t>
+  </si>
+  <si>
+    <t>rural_pop</t>
+  </si>
+  <si>
+    <t>urban_pop</t>
+  </si>
+  <si>
+    <t>pop_density</t>
+  </si>
+  <si>
+    <t>gdp_per_cap</t>
+  </si>
+  <si>
+    <t>hdi</t>
+  </si>
+  <si>
+    <t>gii</t>
+  </si>
+  <si>
+    <t>nri</t>
+  </si>
+  <si>
+    <t>dependency_ratio</t>
+  </si>
+  <si>
+    <t>perc_undernourish</t>
+  </si>
+  <si>
+    <t>renew_water_per_cap</t>
+  </si>
+  <si>
+    <t>water_stress</t>
+  </si>
+  <si>
+    <t>flood</t>
+  </si>
+  <si>
+    <t>perc_safe_water</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -47,13 +166,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,13 +510,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="52.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
